--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/HCSUITE/3.19.23/HCSUITE accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/HCSUITE/3.19.23/HCSUITE accreditamento-checklist_V8.1.2.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="985">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3264,7 +3264,7 @@
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
-    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. Eventuali re-invii di validazione vengono concordati/definiti con le singole aziende.</t>
+    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. Eventuali re-invii di validazione vengono concordati/definiti con le singole aziende. Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_PSS_TIMEOUT</t>
@@ -3283,9 +3283,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_VPS_TIMEOUT</t>
-  </si>
-  <si>
-    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. Eventuali re-invii di validazione vengono concordati/definiti con le singole aziende. Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT6_KO</t>
@@ -5230,7 +5227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5376,6 +5373,9 @@
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -15732,7 +15732,7 @@
       <c r="M228" s="35"/>
       <c r="N228" s="35"/>
       <c r="O228" s="35"/>
-      <c r="P228" s="35" t="s">
+      <c r="P228" s="56" t="s">
         <v>525</v>
       </c>
       <c r="Q228" s="35" t="s">
@@ -15953,7 +15953,7 @@
       <c r="N234" s="35"/>
       <c r="O234" s="35"/>
       <c r="P234" s="34" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q234" s="35" t="s">
         <v>426</v>
@@ -15977,10 +15977,10 @@
         <v>49</v>
       </c>
       <c r="D235" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="E235" s="32" t="s">
         <v>533</v>
-      </c>
-      <c r="E235" s="32" t="s">
-        <v>534</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="34"/>
@@ -16011,10 +16011,10 @@
         <v>49</v>
       </c>
       <c r="D236" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="E236" s="32" t="s">
         <v>535</v>
-      </c>
-      <c r="E236" s="32" t="s">
-        <v>536</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="34"/>
@@ -16045,10 +16045,10 @@
         <v>49</v>
       </c>
       <c r="D237" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="E237" s="32" t="s">
         <v>537</v>
-      </c>
-      <c r="E237" s="32" t="s">
-        <v>538</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="34"/>
@@ -16079,10 +16079,10 @@
         <v>49</v>
       </c>
       <c r="D238" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="E238" s="32" t="s">
         <v>539</v>
-      </c>
-      <c r="E238" s="32" t="s">
-        <v>540</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="34"/>
@@ -16113,10 +16113,10 @@
         <v>49</v>
       </c>
       <c r="D239" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="E239" s="32" t="s">
         <v>541</v>
-      </c>
-      <c r="E239" s="32" t="s">
-        <v>542</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="34"/>
@@ -16147,10 +16147,10 @@
         <v>49</v>
       </c>
       <c r="D240" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="E240" s="32" t="s">
         <v>543</v>
-      </c>
-      <c r="E240" s="32" t="s">
-        <v>544</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="34"/>
@@ -16181,10 +16181,10 @@
         <v>49</v>
       </c>
       <c r="D241" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="E241" s="32" t="s">
         <v>545</v>
-      </c>
-      <c r="E241" s="32" t="s">
-        <v>546</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="34"/>
@@ -16215,10 +16215,10 @@
         <v>49</v>
       </c>
       <c r="D242" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="E242" s="32" t="s">
         <v>547</v>
-      </c>
-      <c r="E242" s="32" t="s">
-        <v>548</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="34"/>
@@ -16249,10 +16249,10 @@
         <v>49</v>
       </c>
       <c r="D243" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="E243" s="32" t="s">
         <v>549</v>
-      </c>
-      <c r="E243" s="32" t="s">
-        <v>550</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="34"/>
@@ -16283,10 +16283,10 @@
         <v>49</v>
       </c>
       <c r="D244" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="E244" s="32" t="s">
         <v>551</v>
-      </c>
-      <c r="E244" s="32" t="s">
-        <v>552</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="34"/>
@@ -16317,10 +16317,10 @@
         <v>49</v>
       </c>
       <c r="D245" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="E245" s="32" t="s">
         <v>553</v>
-      </c>
-      <c r="E245" s="32" t="s">
-        <v>554</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="34"/>
@@ -16351,22 +16351,22 @@
         <v>56</v>
       </c>
       <c r="D246" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="E246" s="32" t="s">
         <v>555</v>
-      </c>
-      <c r="E246" s="32" t="s">
-        <v>556</v>
       </c>
       <c r="F246" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G246" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="H246" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="H246" s="40" t="s">
+      <c r="I246" s="40" t="s">
         <v>558</v>
-      </c>
-      <c r="I246" s="40" t="s">
-        <v>559</v>
       </c>
       <c r="J246" s="35" t="s">
         <v>425</v>
@@ -16375,7 +16375,7 @@
       <c r="L246" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="M246" s="56" t="s">
+      <c r="M246" s="57" t="s">
         <v>429</v>
       </c>
       <c r="O246" s="35" t="s">
@@ -16388,8 +16388,8 @@
         <v>426</v>
       </c>
       <c r="R246" s="36"/>
-      <c r="S246" s="57" t="s">
-        <v>560</v>
+      <c r="S246" s="58" t="s">
+        <v>559</v>
       </c>
       <c r="T246" s="38" t="s">
         <v>55</v>
@@ -16406,22 +16406,22 @@
         <v>56</v>
       </c>
       <c r="D247" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="E247" s="32" t="s">
         <v>561</v>
-      </c>
-      <c r="E247" s="32" t="s">
-        <v>562</v>
       </c>
       <c r="F247" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G247" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="H247" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="H247" s="40" t="s">
+      <c r="I247" s="40" t="s">
         <v>564</v>
-      </c>
-      <c r="I247" s="40" t="s">
-        <v>565</v>
       </c>
       <c r="J247" s="35" t="s">
         <v>425</v>
@@ -16430,7 +16430,7 @@
       <c r="L247" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="M247" s="58" t="s">
+      <c r="M247" s="59" t="s">
         <v>429</v>
       </c>
       <c r="N247" s="35"/>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="R247" s="36"/>
       <c r="S247" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T247" s="38" t="s">
         <v>55</v>
@@ -16462,22 +16462,22 @@
         <v>56</v>
       </c>
       <c r="D248" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="E248" s="32" t="s">
         <v>567</v>
-      </c>
-      <c r="E248" s="32" t="s">
-        <v>568</v>
       </c>
       <c r="F248" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G248" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="H248" s="40" t="s">
         <v>569</v>
       </c>
-      <c r="H248" s="40" t="s">
+      <c r="I248" s="40" t="s">
         <v>570</v>
-      </c>
-      <c r="I248" s="40" t="s">
-        <v>571</v>
       </c>
       <c r="J248" s="35" t="s">
         <v>425</v>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="R248" s="36"/>
       <c r="S248" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T248" s="38" t="s">
         <v>55</v>
@@ -16518,22 +16518,22 @@
         <v>56</v>
       </c>
       <c r="D249" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="E249" s="32" t="s">
         <v>573</v>
-      </c>
-      <c r="E249" s="32" t="s">
-        <v>574</v>
       </c>
       <c r="F249" s="51">
         <v>45042.0</v>
       </c>
       <c r="G249" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="H249" s="52" t="s">
         <v>575</v>
       </c>
-      <c r="H249" s="52" t="s">
+      <c r="I249" s="52" t="s">
         <v>576</v>
-      </c>
-      <c r="I249" s="52" t="s">
-        <v>577</v>
       </c>
       <c r="J249" s="35" t="s">
         <v>425</v>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="R249" s="36"/>
       <c r="S249" s="53" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="T249" s="38" t="s">
         <v>55</v>
@@ -16574,22 +16574,22 @@
         <v>56</v>
       </c>
       <c r="D250" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E250" s="32" t="s">
         <v>579</v>
-      </c>
-      <c r="E250" s="32" t="s">
-        <v>580</v>
       </c>
       <c r="F250" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G250" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="H250" s="40" t="s">
         <v>581</v>
       </c>
-      <c r="H250" s="40" t="s">
+      <c r="I250" s="40" t="s">
         <v>582</v>
-      </c>
-      <c r="I250" s="40" t="s">
-        <v>583</v>
       </c>
       <c r="J250" s="35" t="s">
         <v>425</v>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="R250" s="36"/>
       <c r="S250" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T250" s="38" t="s">
         <v>55</v>
@@ -16630,22 +16630,22 @@
         <v>56</v>
       </c>
       <c r="D251" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="E251" s="32" t="s">
         <v>585</v>
-      </c>
-      <c r="E251" s="32" t="s">
-        <v>586</v>
       </c>
       <c r="F251" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G251" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="H251" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="H251" s="40" t="s">
+      <c r="I251" s="40" t="s">
         <v>588</v>
-      </c>
-      <c r="I251" s="40" t="s">
-        <v>589</v>
       </c>
       <c r="J251" s="35" t="s">
         <v>425</v>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="R251" s="36"/>
       <c r="S251" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T251" s="38" t="s">
         <v>55</v>
@@ -16686,22 +16686,22 @@
         <v>56</v>
       </c>
       <c r="D252" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="E252" s="32" t="s">
         <v>591</v>
-      </c>
-      <c r="E252" s="32" t="s">
-        <v>592</v>
       </c>
       <c r="F252" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G252" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="H252" s="40" t="s">
         <v>593</v>
       </c>
-      <c r="H252" s="40" t="s">
+      <c r="I252" s="40" t="s">
         <v>594</v>
-      </c>
-      <c r="I252" s="40" t="s">
-        <v>595</v>
       </c>
       <c r="J252" s="35" t="s">
         <v>425</v>
@@ -16725,7 +16725,7 @@
       </c>
       <c r="R252" s="36"/>
       <c r="S252" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="T252" s="38" t="s">
         <v>55</v>
@@ -16742,22 +16742,22 @@
         <v>56</v>
       </c>
       <c r="D253" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E253" s="32" t="s">
         <v>597</v>
-      </c>
-      <c r="E253" s="32" t="s">
-        <v>598</v>
       </c>
       <c r="F253" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G253" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="H253" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="H253" s="40" t="s">
+      <c r="I253" s="40" t="s">
         <v>600</v>
-      </c>
-      <c r="I253" s="40" t="s">
-        <v>601</v>
       </c>
       <c r="J253" s="35" t="s">
         <v>425</v>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="R253" s="36"/>
       <c r="S253" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="T253" s="38" t="s">
         <v>55</v>
@@ -16798,10 +16798,10 @@
         <v>56</v>
       </c>
       <c r="D254" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="E254" s="32" t="s">
         <v>603</v>
-      </c>
-      <c r="E254" s="32" t="s">
-        <v>604</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="34"/>
@@ -16811,7 +16811,7 @@
         <v>429</v>
       </c>
       <c r="K254" s="40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L254" s="35"/>
       <c r="M254" s="35"/>
@@ -16836,22 +16836,22 @@
         <v>56</v>
       </c>
       <c r="D255" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="E255" s="32" t="s">
         <v>606</v>
-      </c>
-      <c r="E255" s="32" t="s">
-        <v>607</v>
       </c>
       <c r="F255" s="51">
         <v>45043.0</v>
       </c>
       <c r="G255" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="H255" s="52" t="s">
         <v>608</v>
       </c>
-      <c r="H255" s="52" t="s">
+      <c r="I255" s="52" t="s">
         <v>609</v>
-      </c>
-      <c r="I255" s="52" t="s">
-        <v>610</v>
       </c>
       <c r="J255" s="35" t="s">
         <v>425</v>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="R255" s="36"/>
       <c r="S255" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T255" s="38" t="s">
         <v>55</v>
@@ -16892,22 +16892,22 @@
         <v>56</v>
       </c>
       <c r="D256" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E256" s="32" t="s">
         <v>612</v>
-      </c>
-      <c r="E256" s="32" t="s">
-        <v>613</v>
       </c>
       <c r="F256" s="39" t="s">
         <v>421</v>
       </c>
       <c r="G256" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="H256" s="40" t="s">
         <v>614</v>
       </c>
-      <c r="H256" s="40" t="s">
+      <c r="I256" s="40" t="s">
         <v>615</v>
-      </c>
-      <c r="I256" s="40" t="s">
-        <v>616</v>
       </c>
       <c r="J256" s="35" t="s">
         <v>425</v>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="R256" s="36"/>
       <c r="S256" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T256" s="38" t="s">
         <v>55</v>
@@ -16948,22 +16948,22 @@
         <v>56</v>
       </c>
       <c r="D257" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="E257" s="32" t="s">
         <v>618</v>
-      </c>
-      <c r="E257" s="32" t="s">
-        <v>619</v>
       </c>
       <c r="F257" s="51">
         <v>45043.0</v>
       </c>
       <c r="G257" s="52" t="s">
+        <v>619</v>
+      </c>
+      <c r="H257" s="52" t="s">
         <v>620</v>
       </c>
-      <c r="H257" s="52" t="s">
+      <c r="I257" s="52" t="s">
         <v>621</v>
-      </c>
-      <c r="I257" s="52" t="s">
-        <v>622</v>
       </c>
       <c r="J257" s="35" t="s">
         <v>425</v>
@@ -16987,7 +16987,7 @@
       </c>
       <c r="R257" s="36"/>
       <c r="S257" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T257" s="38" t="s">
         <v>55</v>
@@ -17004,10 +17004,10 @@
         <v>61</v>
       </c>
       <c r="D258" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="E258" s="32" t="s">
         <v>624</v>
-      </c>
-      <c r="E258" s="32" t="s">
-        <v>625</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="34"/>
@@ -17038,10 +17038,10 @@
         <v>61</v>
       </c>
       <c r="D259" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="E259" s="32" t="s">
         <v>626</v>
-      </c>
-      <c r="E259" s="32" t="s">
-        <v>627</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="34"/>
@@ -17072,10 +17072,10 @@
         <v>61</v>
       </c>
       <c r="D260" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="E260" s="32" t="s">
         <v>628</v>
-      </c>
-      <c r="E260" s="32" t="s">
-        <v>629</v>
       </c>
       <c r="F260" s="33"/>
       <c r="G260" s="34"/>
@@ -17106,10 +17106,10 @@
         <v>61</v>
       </c>
       <c r="D261" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="E261" s="32" t="s">
         <v>630</v>
-      </c>
-      <c r="E261" s="32" t="s">
-        <v>631</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="34"/>
@@ -17140,10 +17140,10 @@
         <v>61</v>
       </c>
       <c r="D262" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E262" s="32" t="s">
         <v>632</v>
-      </c>
-      <c r="E262" s="32" t="s">
-        <v>633</v>
       </c>
       <c r="F262" s="33"/>
       <c r="G262" s="34"/>
@@ -17174,10 +17174,10 @@
         <v>61</v>
       </c>
       <c r="D263" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="E263" s="32" t="s">
         <v>634</v>
-      </c>
-      <c r="E263" s="32" t="s">
-        <v>635</v>
       </c>
       <c r="F263" s="33"/>
       <c r="G263" s="34"/>
@@ -17208,10 +17208,10 @@
         <v>61</v>
       </c>
       <c r="D264" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="E264" s="32" t="s">
         <v>636</v>
-      </c>
-      <c r="E264" s="32" t="s">
-        <v>637</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="34"/>
@@ -17242,10 +17242,10 @@
         <v>61</v>
       </c>
       <c r="D265" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="E265" s="32" t="s">
         <v>638</v>
-      </c>
-      <c r="E265" s="32" t="s">
-        <v>639</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="34"/>
@@ -17276,10 +17276,10 @@
         <v>61</v>
       </c>
       <c r="D266" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="E266" s="32" t="s">
         <v>640</v>
-      </c>
-      <c r="E266" s="32" t="s">
-        <v>641</v>
       </c>
       <c r="F266" s="33"/>
       <c r="G266" s="34"/>
@@ -17310,10 +17310,10 @@
         <v>61</v>
       </c>
       <c r="D267" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="E267" s="32" t="s">
         <v>642</v>
-      </c>
-      <c r="E267" s="32" t="s">
-        <v>643</v>
       </c>
       <c r="F267" s="33"/>
       <c r="G267" s="34"/>
@@ -17344,10 +17344,10 @@
         <v>61</v>
       </c>
       <c r="D268" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="E268" s="32" t="s">
         <v>644</v>
-      </c>
-      <c r="E268" s="32" t="s">
-        <v>645</v>
       </c>
       <c r="F268" s="33"/>
       <c r="G268" s="34"/>
@@ -17378,10 +17378,10 @@
         <v>61</v>
       </c>
       <c r="D269" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E269" s="32" t="s">
         <v>646</v>
-      </c>
-      <c r="E269" s="32" t="s">
-        <v>647</v>
       </c>
       <c r="F269" s="33"/>
       <c r="G269" s="34"/>
@@ -17412,10 +17412,10 @@
         <v>61</v>
       </c>
       <c r="D270" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="E270" s="32" t="s">
         <v>648</v>
-      </c>
-      <c r="E270" s="32" t="s">
-        <v>649</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="34"/>
@@ -17446,10 +17446,10 @@
         <v>61</v>
       </c>
       <c r="D271" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="E271" s="32" t="s">
         <v>650</v>
-      </c>
-      <c r="E271" s="32" t="s">
-        <v>651</v>
       </c>
       <c r="F271" s="33"/>
       <c r="G271" s="34"/>
@@ -17480,10 +17480,10 @@
         <v>61</v>
       </c>
       <c r="D272" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E272" s="32" t="s">
         <v>652</v>
-      </c>
-      <c r="E272" s="32" t="s">
-        <v>653</v>
       </c>
       <c r="F272" s="33"/>
       <c r="G272" s="34"/>
@@ -17514,10 +17514,10 @@
         <v>61</v>
       </c>
       <c r="D273" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="E273" s="32" t="s">
         <v>654</v>
-      </c>
-      <c r="E273" s="32" t="s">
-        <v>655</v>
       </c>
       <c r="F273" s="33"/>
       <c r="G273" s="34"/>
@@ -17548,10 +17548,10 @@
         <v>61</v>
       </c>
       <c r="D274" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E274" s="32" t="s">
         <v>656</v>
-      </c>
-      <c r="E274" s="32" t="s">
-        <v>657</v>
       </c>
       <c r="F274" s="33"/>
       <c r="G274" s="34"/>
@@ -17582,10 +17582,10 @@
         <v>61</v>
       </c>
       <c r="D275" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E275" s="32" t="s">
         <v>658</v>
-      </c>
-      <c r="E275" s="32" t="s">
-        <v>659</v>
       </c>
       <c r="F275" s="33"/>
       <c r="G275" s="34"/>
@@ -17616,10 +17616,10 @@
         <v>61</v>
       </c>
       <c r="D276" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="E276" s="32" t="s">
         <v>660</v>
-      </c>
-      <c r="E276" s="32" t="s">
-        <v>661</v>
       </c>
       <c r="F276" s="33"/>
       <c r="G276" s="34"/>
@@ -17650,10 +17650,10 @@
         <v>66</v>
       </c>
       <c r="D277" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="E277" s="32" t="s">
         <v>662</v>
-      </c>
-      <c r="E277" s="32" t="s">
-        <v>663</v>
       </c>
       <c r="F277" s="33"/>
       <c r="G277" s="34"/>
@@ -17684,10 +17684,10 @@
         <v>66</v>
       </c>
       <c r="D278" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E278" s="32" t="s">
         <v>664</v>
-      </c>
-      <c r="E278" s="32" t="s">
-        <v>665</v>
       </c>
       <c r="F278" s="33"/>
       <c r="G278" s="34"/>
@@ -17718,10 +17718,10 @@
         <v>66</v>
       </c>
       <c r="D279" s="31" t="s">
+        <v>665</v>
+      </c>
+      <c r="E279" s="32" t="s">
         <v>666</v>
-      </c>
-      <c r="E279" s="32" t="s">
-        <v>667</v>
       </c>
       <c r="F279" s="33"/>
       <c r="G279" s="34"/>
@@ -17752,10 +17752,10 @@
         <v>66</v>
       </c>
       <c r="D280" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E280" s="32" t="s">
         <v>668</v>
-      </c>
-      <c r="E280" s="32" t="s">
-        <v>669</v>
       </c>
       <c r="F280" s="33"/>
       <c r="G280" s="34"/>
@@ -17786,10 +17786,10 @@
         <v>66</v>
       </c>
       <c r="D281" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="E281" s="32" t="s">
         <v>670</v>
-      </c>
-      <c r="E281" s="32" t="s">
-        <v>671</v>
       </c>
       <c r="F281" s="33"/>
       <c r="G281" s="34"/>
@@ -17820,10 +17820,10 @@
         <v>66</v>
       </c>
       <c r="D282" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="E282" s="32" t="s">
         <v>672</v>
-      </c>
-      <c r="E282" s="32" t="s">
-        <v>673</v>
       </c>
       <c r="F282" s="33"/>
       <c r="G282" s="34"/>
@@ -17854,10 +17854,10 @@
         <v>66</v>
       </c>
       <c r="D283" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="E283" s="32" t="s">
         <v>674</v>
-      </c>
-      <c r="E283" s="32" t="s">
-        <v>675</v>
       </c>
       <c r="F283" s="33"/>
       <c r="G283" s="34"/>
@@ -17888,10 +17888,10 @@
         <v>66</v>
       </c>
       <c r="D284" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E284" s="32" t="s">
         <v>676</v>
-      </c>
-      <c r="E284" s="32" t="s">
-        <v>677</v>
       </c>
       <c r="F284" s="33"/>
       <c r="G284" s="34"/>
@@ -17922,10 +17922,10 @@
         <v>66</v>
       </c>
       <c r="D285" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E285" s="32" t="s">
         <v>678</v>
-      </c>
-      <c r="E285" s="32" t="s">
-        <v>679</v>
       </c>
       <c r="F285" s="33"/>
       <c r="G285" s="34"/>
@@ -17956,10 +17956,10 @@
         <v>66</v>
       </c>
       <c r="D286" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="E286" s="32" t="s">
         <v>680</v>
-      </c>
-      <c r="E286" s="32" t="s">
-        <v>681</v>
       </c>
       <c r="F286" s="33"/>
       <c r="G286" s="34"/>
@@ -17990,10 +17990,10 @@
         <v>66</v>
       </c>
       <c r="D287" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="E287" s="32" t="s">
         <v>682</v>
-      </c>
-      <c r="E287" s="32" t="s">
-        <v>683</v>
       </c>
       <c r="F287" s="33"/>
       <c r="G287" s="34"/>
@@ -18024,10 +18024,10 @@
         <v>66</v>
       </c>
       <c r="D288" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="E288" s="32" t="s">
         <v>684</v>
-      </c>
-      <c r="E288" s="32" t="s">
-        <v>685</v>
       </c>
       <c r="F288" s="33"/>
       <c r="G288" s="34"/>
@@ -18058,10 +18058,10 @@
         <v>66</v>
       </c>
       <c r="D289" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="E289" s="32" t="s">
         <v>686</v>
-      </c>
-      <c r="E289" s="32" t="s">
-        <v>687</v>
       </c>
       <c r="F289" s="33"/>
       <c r="G289" s="34"/>
@@ -18092,10 +18092,10 @@
         <v>71</v>
       </c>
       <c r="D290" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="E290" s="32" t="s">
         <v>688</v>
-      </c>
-      <c r="E290" s="32" t="s">
-        <v>689</v>
       </c>
       <c r="F290" s="33"/>
       <c r="G290" s="34"/>
@@ -18126,10 +18126,10 @@
         <v>71</v>
       </c>
       <c r="D291" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="E291" s="32" t="s">
         <v>690</v>
-      </c>
-      <c r="E291" s="32" t="s">
-        <v>691</v>
       </c>
       <c r="F291" s="33"/>
       <c r="G291" s="34"/>
@@ -18160,10 +18160,10 @@
         <v>71</v>
       </c>
       <c r="D292" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="E292" s="32" t="s">
         <v>692</v>
-      </c>
-      <c r="E292" s="32" t="s">
-        <v>693</v>
       </c>
       <c r="F292" s="33"/>
       <c r="G292" s="34"/>
@@ -18194,10 +18194,10 @@
         <v>71</v>
       </c>
       <c r="D293" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="E293" s="32" t="s">
         <v>694</v>
-      </c>
-      <c r="E293" s="32" t="s">
-        <v>695</v>
       </c>
       <c r="F293" s="33"/>
       <c r="G293" s="34"/>
@@ -18228,10 +18228,10 @@
         <v>71</v>
       </c>
       <c r="D294" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="E294" s="32" t="s">
         <v>696</v>
-      </c>
-      <c r="E294" s="32" t="s">
-        <v>697</v>
       </c>
       <c r="F294" s="33"/>
       <c r="G294" s="34"/>
@@ -18262,10 +18262,10 @@
         <v>71</v>
       </c>
       <c r="D295" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="E295" s="32" t="s">
         <v>698</v>
-      </c>
-      <c r="E295" s="32" t="s">
-        <v>699</v>
       </c>
       <c r="F295" s="33"/>
       <c r="G295" s="34"/>
@@ -18296,10 +18296,10 @@
         <v>71</v>
       </c>
       <c r="D296" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="E296" s="32" t="s">
         <v>700</v>
-      </c>
-      <c r="E296" s="32" t="s">
-        <v>701</v>
       </c>
       <c r="F296" s="33"/>
       <c r="G296" s="34"/>
@@ -18330,10 +18330,10 @@
         <v>71</v>
       </c>
       <c r="D297" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="E297" s="32" t="s">
         <v>702</v>
-      </c>
-      <c r="E297" s="32" t="s">
-        <v>703</v>
       </c>
       <c r="F297" s="33"/>
       <c r="G297" s="34"/>
@@ -18364,10 +18364,10 @@
         <v>71</v>
       </c>
       <c r="D298" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="E298" s="32" t="s">
         <v>704</v>
-      </c>
-      <c r="E298" s="32" t="s">
-        <v>705</v>
       </c>
       <c r="F298" s="33"/>
       <c r="G298" s="34"/>
@@ -18398,10 +18398,10 @@
         <v>71</v>
       </c>
       <c r="D299" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="E299" s="32" t="s">
         <v>706</v>
-      </c>
-      <c r="E299" s="32" t="s">
-        <v>707</v>
       </c>
       <c r="F299" s="33"/>
       <c r="G299" s="34"/>
@@ -18432,10 +18432,10 @@
         <v>71</v>
       </c>
       <c r="D300" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="E300" s="32" t="s">
         <v>708</v>
-      </c>
-      <c r="E300" s="32" t="s">
-        <v>709</v>
       </c>
       <c r="F300" s="33"/>
       <c r="G300" s="34"/>
@@ -18466,10 +18466,10 @@
         <v>71</v>
       </c>
       <c r="D301" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="E301" s="32" t="s">
         <v>710</v>
-      </c>
-      <c r="E301" s="32" t="s">
-        <v>711</v>
       </c>
       <c r="F301" s="33"/>
       <c r="G301" s="34"/>
@@ -18500,10 +18500,10 @@
         <v>71</v>
       </c>
       <c r="D302" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="E302" s="32" t="s">
         <v>712</v>
-      </c>
-      <c r="E302" s="32" t="s">
-        <v>713</v>
       </c>
       <c r="F302" s="33"/>
       <c r="G302" s="34"/>
@@ -18534,10 +18534,10 @@
         <v>71</v>
       </c>
       <c r="D303" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E303" s="32" t="s">
         <v>714</v>
-      </c>
-      <c r="E303" s="32" t="s">
-        <v>715</v>
       </c>
       <c r="F303" s="33"/>
       <c r="G303" s="34"/>
@@ -18568,10 +18568,10 @@
         <v>71</v>
       </c>
       <c r="D304" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="E304" s="32" t="s">
         <v>716</v>
-      </c>
-      <c r="E304" s="32" t="s">
-        <v>717</v>
       </c>
       <c r="F304" s="33"/>
       <c r="G304" s="34"/>
@@ -18602,22 +18602,22 @@
         <v>76</v>
       </c>
       <c r="D305" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="E305" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="E305" s="32" t="s">
+      <c r="F305" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="F305" s="39" t="s">
+      <c r="G305" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="G305" s="40" t="s">
+      <c r="H305" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="H305" s="40" t="s">
+      <c r="I305" s="40" t="s">
         <v>722</v>
-      </c>
-      <c r="I305" s="40" t="s">
-        <v>723</v>
       </c>
       <c r="J305" s="35" t="s">
         <v>425</v>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="R305" s="36"/>
       <c r="S305" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="T305" s="38" t="s">
         <v>55</v>
@@ -18658,22 +18658,22 @@
         <v>76</v>
       </c>
       <c r="D306" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E306" s="32" t="s">
         <v>725</v>
       </c>
-      <c r="E306" s="32" t="s">
+      <c r="F306" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G306" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="F306" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="G306" s="40" t="s">
+      <c r="H306" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="H306" s="40" t="s">
+      <c r="I306" s="40" t="s">
         <v>728</v>
-      </c>
-      <c r="I306" s="40" t="s">
-        <v>729</v>
       </c>
       <c r="J306" s="35" t="s">
         <v>425</v>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="R306" s="36"/>
       <c r="S306" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T306" s="38" t="s">
         <v>55</v>
@@ -18714,22 +18714,22 @@
         <v>76</v>
       </c>
       <c r="D307" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="E307" s="32" t="s">
         <v>730</v>
       </c>
-      <c r="E307" s="32" t="s">
+      <c r="F307" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G307" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="F307" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="G307" s="40" t="s">
+      <c r="H307" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="H307" s="40" t="s">
+      <c r="I307" s="40" t="s">
         <v>733</v>
-      </c>
-      <c r="I307" s="40" t="s">
-        <v>734</v>
       </c>
       <c r="J307" s="35" t="s">
         <v>425</v>
@@ -18751,9 +18751,9 @@
       <c r="Q307" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="R307" s="59"/>
-      <c r="S307" s="60" t="s">
-        <v>572</v>
+      <c r="R307" s="60"/>
+      <c r="S307" s="61" t="s">
+        <v>571</v>
       </c>
       <c r="T307" s="38" t="s">
         <v>55</v>
@@ -18770,22 +18770,22 @@
         <v>76</v>
       </c>
       <c r="D308" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="E308" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="E308" s="32" t="s">
+      <c r="F308" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G308" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="F308" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="G308" s="40" t="s">
+      <c r="H308" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="H308" s="40" t="s">
+      <c r="I308" s="40" t="s">
         <v>738</v>
-      </c>
-      <c r="I308" s="40" t="s">
-        <v>739</v>
       </c>
       <c r="J308" s="35" t="s">
         <v>425</v>
@@ -18807,9 +18807,9 @@
       <c r="Q308" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="R308" s="59"/>
-      <c r="S308" s="60" t="s">
-        <v>578</v>
+      <c r="R308" s="60"/>
+      <c r="S308" s="61" t="s">
+        <v>577</v>
       </c>
       <c r="T308" s="38" t="s">
         <v>55</v>
@@ -18826,22 +18826,22 @@
         <v>76</v>
       </c>
       <c r="D309" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="E309" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="E309" s="32" t="s">
+      <c r="F309" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G309" s="40" t="s">
         <v>741</v>
       </c>
-      <c r="F309" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="G309" s="40" t="s">
+      <c r="H309" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="H309" s="40" t="s">
+      <c r="I309" s="40" t="s">
         <v>743</v>
-      </c>
-      <c r="I309" s="40" t="s">
-        <v>744</v>
       </c>
       <c r="J309" s="35" t="s">
         <v>425</v>
@@ -18863,9 +18863,9 @@
       <c r="Q309" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="R309" s="61"/>
-      <c r="S309" s="62" t="s">
-        <v>584</v>
+      <c r="R309" s="62"/>
+      <c r="S309" s="63" t="s">
+        <v>583</v>
       </c>
       <c r="T309" s="38" t="s">
         <v>55</v>
@@ -18882,22 +18882,22 @@
         <v>76</v>
       </c>
       <c r="D310" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="E310" s="32" t="s">
         <v>745</v>
       </c>
-      <c r="E310" s="32" t="s">
+      <c r="F310" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="G310" s="40" t="s">
         <v>746</v>
       </c>
-      <c r="F310" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="G310" s="40" t="s">
+      <c r="H310" s="40" t="s">
         <v>747</v>
       </c>
-      <c r="H310" s="40" t="s">
+      <c r="I310" s="40" t="s">
         <v>748</v>
-      </c>
-      <c r="I310" s="40" t="s">
-        <v>749</v>
       </c>
       <c r="J310" s="35" t="s">
         <v>425</v>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="R310" s="36"/>
       <c r="S310" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T310" s="38" t="s">
         <v>55</v>
@@ -18938,22 +18938,22 @@
         <v>76</v>
       </c>
       <c r="D311" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="E311" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="E311" s="32" t="s">
+      <c r="F311" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="F311" s="39" t="s">
+      <c r="G311" s="40" t="s">
         <v>752</v>
       </c>
-      <c r="G311" s="40" t="s">
+      <c r="H311" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="H311" s="40" t="s">
+      <c r="I311" s="40" t="s">
         <v>754</v>
-      </c>
-      <c r="I311" s="40" t="s">
-        <v>755</v>
       </c>
       <c r="J311" s="35" t="s">
         <v>425</v>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="R311" s="36"/>
       <c r="S311" s="37" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T311" s="38" t="s">
         <v>55</v>
@@ -18994,22 +18994,22 @@
         <v>76</v>
       </c>
       <c r="D312" s="31" t="s">
+        <v>756</v>
+      </c>
+      <c r="E312" s="32" t="s">
         <v>757</v>
       </c>
-      <c r="E312" s="32" t="s">
+      <c r="F312" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G312" s="40" t="s">
         <v>758</v>
       </c>
-      <c r="F312" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G312" s="40" t="s">
+      <c r="H312" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="H312" s="40" t="s">
+      <c r="I312" s="40" t="s">
         <v>760</v>
-      </c>
-      <c r="I312" s="40" t="s">
-        <v>761</v>
       </c>
       <c r="J312" s="35" t="s">
         <v>425</v>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="R312" s="36"/>
       <c r="S312" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="T312" s="38" t="s">
         <v>55</v>
@@ -19050,22 +19050,22 @@
         <v>76</v>
       </c>
       <c r="D313" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="E313" s="32" t="s">
         <v>763</v>
       </c>
-      <c r="E313" s="32" t="s">
+      <c r="F313" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G313" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="F313" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G313" s="40" t="s">
+      <c r="H313" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="H313" s="40" t="s">
+      <c r="I313" s="40" t="s">
         <v>766</v>
-      </c>
-      <c r="I313" s="40" t="s">
-        <v>767</v>
       </c>
       <c r="J313" s="35" t="s">
         <v>425</v>
@@ -19089,7 +19089,7 @@
       </c>
       <c r="R313" s="36"/>
       <c r="S313" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="T313" s="38" t="s">
         <v>55</v>
@@ -19106,22 +19106,22 @@
         <v>76</v>
       </c>
       <c r="D314" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="E314" s="32" t="s">
         <v>769</v>
       </c>
-      <c r="E314" s="32" t="s">
+      <c r="F314" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G314" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="F314" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G314" s="40" t="s">
+      <c r="H314" s="40" t="s">
         <v>771</v>
       </c>
-      <c r="H314" s="40" t="s">
+      <c r="I314" s="40" t="s">
         <v>772</v>
-      </c>
-      <c r="I314" s="40" t="s">
-        <v>773</v>
       </c>
       <c r="J314" s="35" t="s">
         <v>425</v>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="R314" s="36"/>
       <c r="S314" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T314" s="38" t="s">
         <v>55</v>
@@ -19162,22 +19162,22 @@
         <v>76</v>
       </c>
       <c r="D315" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="E315" s="32" t="s">
         <v>775</v>
       </c>
-      <c r="E315" s="32" t="s">
+      <c r="F315" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G315" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="F315" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G315" s="40" t="s">
+      <c r="H315" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="H315" s="40" t="s">
+      <c r="I315" s="40" t="s">
         <v>778</v>
-      </c>
-      <c r="I315" s="40" t="s">
-        <v>779</v>
       </c>
       <c r="J315" s="35" t="s">
         <v>425</v>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="R315" s="36"/>
       <c r="S315" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T315" s="38" t="s">
         <v>55</v>
@@ -19218,22 +19218,22 @@
         <v>76</v>
       </c>
       <c r="D316" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="E316" s="32" t="s">
         <v>781</v>
       </c>
-      <c r="E316" s="32" t="s">
+      <c r="F316" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G316" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="F316" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G316" s="40" t="s">
+      <c r="H316" s="40" t="s">
         <v>783</v>
       </c>
-      <c r="H316" s="40" t="s">
+      <c r="I316" s="40" t="s">
         <v>784</v>
-      </c>
-      <c r="I316" s="40" t="s">
-        <v>785</v>
       </c>
       <c r="J316" s="35" t="s">
         <v>425</v>
@@ -19257,7 +19257,7 @@
       </c>
       <c r="R316" s="36"/>
       <c r="S316" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T316" s="38" t="s">
         <v>55</v>
@@ -19274,10 +19274,10 @@
         <v>76</v>
       </c>
       <c r="D317" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="E317" s="32" t="s">
         <v>787</v>
-      </c>
-      <c r="E317" s="32" t="s">
-        <v>788</v>
       </c>
       <c r="F317" s="33"/>
       <c r="G317" s="34"/>
@@ -19287,7 +19287,7 @@
         <v>429</v>
       </c>
       <c r="K317" s="35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L317" s="35"/>
       <c r="M317" s="35"/>
@@ -19312,10 +19312,10 @@
         <v>76</v>
       </c>
       <c r="D318" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="E318" s="32" t="s">
         <v>790</v>
-      </c>
-      <c r="E318" s="32" t="s">
-        <v>791</v>
       </c>
       <c r="F318" s="33"/>
       <c r="G318" s="34"/>
@@ -19325,7 +19325,7 @@
         <v>429</v>
       </c>
       <c r="K318" s="35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L318" s="35"/>
       <c r="M318" s="35"/>
@@ -19350,10 +19350,10 @@
         <v>76</v>
       </c>
       <c r="D319" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="E319" s="32" t="s">
         <v>793</v>
-      </c>
-      <c r="E319" s="32" t="s">
-        <v>794</v>
       </c>
       <c r="F319" s="33"/>
       <c r="G319" s="34"/>
@@ -19363,7 +19363,7 @@
         <v>429</v>
       </c>
       <c r="K319" s="35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L319" s="35"/>
       <c r="M319" s="35"/>
@@ -19388,22 +19388,22 @@
         <v>76</v>
       </c>
       <c r="D320" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="E320" s="32" t="s">
         <v>796</v>
       </c>
-      <c r="E320" s="32" t="s">
+      <c r="F320" s="33" t="s">
         <v>797</v>
       </c>
-      <c r="F320" s="33" t="s">
+      <c r="G320" s="34" t="s">
         <v>798</v>
       </c>
-      <c r="G320" s="34" t="s">
+      <c r="H320" s="34" t="s">
         <v>799</v>
       </c>
-      <c r="H320" s="34" t="s">
+      <c r="I320" s="34" t="s">
         <v>800</v>
-      </c>
-      <c r="I320" s="34" t="s">
-        <v>801</v>
       </c>
       <c r="J320" s="35" t="s">
         <v>425</v>
@@ -19427,7 +19427,7 @@
       </c>
       <c r="R320" s="36"/>
       <c r="S320" s="35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="T320" s="38" t="s">
         <v>55</v>
@@ -19444,10 +19444,10 @@
         <v>76</v>
       </c>
       <c r="D321" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="E321" s="32" t="s">
         <v>803</v>
-      </c>
-      <c r="E321" s="32" t="s">
-        <v>804</v>
       </c>
       <c r="F321" s="33"/>
       <c r="G321" s="34"/>
@@ -19457,7 +19457,7 @@
         <v>429</v>
       </c>
       <c r="K321" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L321" s="35"/>
       <c r="M321" s="35"/>
@@ -19482,22 +19482,22 @@
         <v>76</v>
       </c>
       <c r="D322" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E322" s="32" t="s">
         <v>806</v>
       </c>
-      <c r="E322" s="32" t="s">
+      <c r="F322" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G322" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="F322" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G322" s="40" t="s">
+      <c r="H322" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="H322" s="40" t="s">
+      <c r="I322" s="40" t="s">
         <v>809</v>
-      </c>
-      <c r="I322" s="40" t="s">
-        <v>810</v>
       </c>
       <c r="J322" s="35" t="s">
         <v>425</v>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="R322" s="36"/>
       <c r="S322" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T322" s="38" t="s">
         <v>55</v>
@@ -19538,22 +19538,22 @@
         <v>76</v>
       </c>
       <c r="D323" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="E323" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="E323" s="32" t="s">
+      <c r="F323" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G323" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="F323" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G323" s="40" t="s">
+      <c r="H323" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="H323" s="40" t="s">
+      <c r="I323" s="40" t="s">
         <v>815</v>
-      </c>
-      <c r="I323" s="40" t="s">
-        <v>816</v>
       </c>
       <c r="J323" s="35" t="s">
         <v>425</v>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="R323" s="36"/>
       <c r="S323" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="T323" s="38" t="s">
         <v>55</v>
@@ -19594,10 +19594,10 @@
         <v>76</v>
       </c>
       <c r="D324" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="E324" s="32" t="s">
         <v>818</v>
-      </c>
-      <c r="E324" s="32" t="s">
-        <v>819</v>
       </c>
       <c r="F324" s="33"/>
       <c r="G324" s="34"/>
@@ -19607,7 +19607,7 @@
         <v>429</v>
       </c>
       <c r="K324" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L324" s="35"/>
       <c r="M324" s="35"/>
@@ -19632,46 +19632,46 @@
         <v>76</v>
       </c>
       <c r="D325" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="E325" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="E325" s="32" t="s">
+      <c r="F325" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="G325" s="65" t="s">
         <v>822</v>
       </c>
-      <c r="F325" s="63" t="s">
-        <v>752</v>
-      </c>
-      <c r="G325" s="64" t="s">
+      <c r="H325" s="65" t="s">
         <v>823</v>
       </c>
-      <c r="H325" s="64" t="s">
+      <c r="I325" s="65" t="s">
         <v>824</v>
       </c>
-      <c r="I325" s="64" t="s">
+      <c r="J325" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="K325" s="66"/>
+      <c r="L325" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="M325" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="N325" s="66"/>
+      <c r="O325" s="66" t="s">
+        <v>425</v>
+      </c>
+      <c r="P325" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q325" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="R325" s="67"/>
+      <c r="S325" s="68" t="s">
         <v>825</v>
-      </c>
-      <c r="J325" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="K325" s="65"/>
-      <c r="L325" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="M325" s="65" t="s">
-        <v>429</v>
-      </c>
-      <c r="N325" s="65"/>
-      <c r="O325" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="P325" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q325" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="R325" s="66"/>
-      <c r="S325" s="67" t="s">
-        <v>826</v>
       </c>
       <c r="T325" s="38" t="s">
         <v>55</v>
@@ -19688,22 +19688,22 @@
         <v>76</v>
       </c>
       <c r="D326" s="31" t="s">
+        <v>826</v>
+      </c>
+      <c r="E326" s="32" t="s">
         <v>827</v>
       </c>
-      <c r="E326" s="32" t="s">
+      <c r="F326" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G326" s="40" t="s">
         <v>828</v>
       </c>
-      <c r="F326" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G326" s="40" t="s">
+      <c r="H326" s="40" t="s">
         <v>829</v>
       </c>
-      <c r="H326" s="40" t="s">
+      <c r="I326" s="40" t="s">
         <v>830</v>
-      </c>
-      <c r="I326" s="40" t="s">
-        <v>831</v>
       </c>
       <c r="J326" s="35" t="s">
         <v>425</v>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="R326" s="36"/>
       <c r="S326" s="37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="T326" s="38" t="s">
         <v>55</v>
@@ -19744,22 +19744,22 @@
         <v>76</v>
       </c>
       <c r="D327" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="E327" s="32" t="s">
         <v>833</v>
       </c>
-      <c r="E327" s="32" t="s">
+      <c r="F327" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="G327" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="F327" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="G327" s="40" t="s">
+      <c r="H327" s="40" t="s">
         <v>835</v>
       </c>
-      <c r="H327" s="40" t="s">
+      <c r="I327" s="40" t="s">
         <v>836</v>
-      </c>
-      <c r="I327" s="40" t="s">
-        <v>837</v>
       </c>
       <c r="J327" s="35" t="s">
         <v>425</v>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="R327" s="36"/>
       <c r="S327" s="37" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="T327" s="38" t="s">
         <v>55</v>
@@ -19800,10 +19800,10 @@
         <v>76</v>
       </c>
       <c r="D328" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="E328" s="32" t="s">
         <v>839</v>
-      </c>
-      <c r="E328" s="32" t="s">
-        <v>840</v>
       </c>
       <c r="F328" s="33"/>
       <c r="G328" s="34"/>
@@ -19813,7 +19813,7 @@
         <v>429</v>
       </c>
       <c r="K328" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L328" s="35"/>
       <c r="M328" s="35"/>
@@ -19838,10 +19838,10 @@
         <v>76</v>
       </c>
       <c r="D329" s="31" t="s">
+        <v>841</v>
+      </c>
+      <c r="E329" s="32" t="s">
         <v>842</v>
-      </c>
-      <c r="E329" s="32" t="s">
-        <v>843</v>
       </c>
       <c r="F329" s="33"/>
       <c r="G329" s="34"/>
@@ -19851,7 +19851,7 @@
         <v>429</v>
       </c>
       <c r="K329" s="53" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L329" s="35"/>
       <c r="M329" s="35"/>
@@ -19876,10 +19876,10 @@
         <v>81</v>
       </c>
       <c r="D330" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="E330" s="32" t="s">
         <v>845</v>
-      </c>
-      <c r="E330" s="32" t="s">
-        <v>846</v>
       </c>
       <c r="F330" s="33"/>
       <c r="G330" s="34"/>
@@ -19910,10 +19910,10 @@
         <v>81</v>
       </c>
       <c r="D331" s="31" t="s">
+        <v>846</v>
+      </c>
+      <c r="E331" s="32" t="s">
         <v>847</v>
-      </c>
-      <c r="E331" s="32" t="s">
-        <v>848</v>
       </c>
       <c r="F331" s="33"/>
       <c r="G331" s="34"/>
@@ -19944,10 +19944,10 @@
         <v>81</v>
       </c>
       <c r="D332" s="31" t="s">
+        <v>848</v>
+      </c>
+      <c r="E332" s="32" t="s">
         <v>849</v>
-      </c>
-      <c r="E332" s="32" t="s">
-        <v>850</v>
       </c>
       <c r="F332" s="33"/>
       <c r="G332" s="34"/>
@@ -19978,10 +19978,10 @@
         <v>81</v>
       </c>
       <c r="D333" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="E333" s="32" t="s">
         <v>851</v>
-      </c>
-      <c r="E333" s="32" t="s">
-        <v>852</v>
       </c>
       <c r="F333" s="33"/>
       <c r="G333" s="34"/>
@@ -20012,10 +20012,10 @@
         <v>81</v>
       </c>
       <c r="D334" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="E334" s="32" t="s">
         <v>853</v>
-      </c>
-      <c r="E334" s="32" t="s">
-        <v>854</v>
       </c>
       <c r="F334" s="33"/>
       <c r="G334" s="34"/>
@@ -20046,10 +20046,10 @@
         <v>81</v>
       </c>
       <c r="D335" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="E335" s="32" t="s">
         <v>855</v>
-      </c>
-      <c r="E335" s="32" t="s">
-        <v>856</v>
       </c>
       <c r="F335" s="33"/>
       <c r="G335" s="34"/>
@@ -20080,10 +20080,10 @@
         <v>81</v>
       </c>
       <c r="D336" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="E336" s="32" t="s">
         <v>857</v>
-      </c>
-      <c r="E336" s="32" t="s">
-        <v>858</v>
       </c>
       <c r="F336" s="33"/>
       <c r="G336" s="34"/>
@@ -20114,10 +20114,10 @@
         <v>81</v>
       </c>
       <c r="D337" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="E337" s="32" t="s">
         <v>859</v>
-      </c>
-      <c r="E337" s="32" t="s">
-        <v>860</v>
       </c>
       <c r="F337" s="33"/>
       <c r="G337" s="34"/>
@@ -20148,10 +20148,10 @@
         <v>81</v>
       </c>
       <c r="D338" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="E338" s="32" t="s">
         <v>861</v>
-      </c>
-      <c r="E338" s="32" t="s">
-        <v>862</v>
       </c>
       <c r="F338" s="33"/>
       <c r="G338" s="34"/>
@@ -20182,10 +20182,10 @@
         <v>81</v>
       </c>
       <c r="D339" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="E339" s="32" t="s">
         <v>863</v>
-      </c>
-      <c r="E339" s="32" t="s">
-        <v>864</v>
       </c>
       <c r="F339" s="33"/>
       <c r="G339" s="34"/>
@@ -20216,10 +20216,10 @@
         <v>81</v>
       </c>
       <c r="D340" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="E340" s="32" t="s">
         <v>865</v>
-      </c>
-      <c r="E340" s="32" t="s">
-        <v>866</v>
       </c>
       <c r="F340" s="33"/>
       <c r="G340" s="34"/>
@@ -20250,10 +20250,10 @@
         <v>81</v>
       </c>
       <c r="D341" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="E341" s="32" t="s">
         <v>867</v>
-      </c>
-      <c r="E341" s="32" t="s">
-        <v>868</v>
       </c>
       <c r="F341" s="33"/>
       <c r="G341" s="34"/>
@@ -20284,10 +20284,10 @@
         <v>81</v>
       </c>
       <c r="D342" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="E342" s="32" t="s">
         <v>869</v>
-      </c>
-      <c r="E342" s="32" t="s">
-        <v>870</v>
       </c>
       <c r="F342" s="33"/>
       <c r="G342" s="34"/>
@@ -20318,10 +20318,10 @@
         <v>81</v>
       </c>
       <c r="D343" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="E343" s="32" t="s">
         <v>871</v>
-      </c>
-      <c r="E343" s="32" t="s">
-        <v>872</v>
       </c>
       <c r="F343" s="33"/>
       <c r="G343" s="34"/>
@@ -20352,10 +20352,10 @@
         <v>81</v>
       </c>
       <c r="D344" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="E344" s="32" t="s">
         <v>873</v>
-      </c>
-      <c r="E344" s="32" t="s">
-        <v>874</v>
       </c>
       <c r="F344" s="33"/>
       <c r="G344" s="34"/>
@@ -20386,10 +20386,10 @@
         <v>81</v>
       </c>
       <c r="D345" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="E345" s="32" t="s">
         <v>875</v>
-      </c>
-      <c r="E345" s="32" t="s">
-        <v>876</v>
       </c>
       <c r="F345" s="33"/>
       <c r="G345" s="34"/>
@@ -20420,10 +20420,10 @@
         <v>81</v>
       </c>
       <c r="D346" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="E346" s="32" t="s">
         <v>877</v>
-      </c>
-      <c r="E346" s="32" t="s">
-        <v>878</v>
       </c>
       <c r="F346" s="33"/>
       <c r="G346" s="34"/>
@@ -20454,10 +20454,10 @@
         <v>81</v>
       </c>
       <c r="D347" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="E347" s="32" t="s">
         <v>879</v>
-      </c>
-      <c r="E347" s="32" t="s">
-        <v>880</v>
       </c>
       <c r="F347" s="33"/>
       <c r="G347" s="34"/>
@@ -20488,10 +20488,10 @@
         <v>81</v>
       </c>
       <c r="D348" s="31" t="s">
+        <v>880</v>
+      </c>
+      <c r="E348" s="32" t="s">
         <v>881</v>
-      </c>
-      <c r="E348" s="32" t="s">
-        <v>882</v>
       </c>
       <c r="F348" s="33"/>
       <c r="G348" s="34"/>
@@ -20522,10 +20522,10 @@
         <v>81</v>
       </c>
       <c r="D349" s="31" t="s">
+        <v>882</v>
+      </c>
+      <c r="E349" s="32" t="s">
         <v>883</v>
-      </c>
-      <c r="E349" s="32" t="s">
-        <v>884</v>
       </c>
       <c r="F349" s="33"/>
       <c r="G349" s="34"/>
@@ -20556,10 +20556,10 @@
         <v>81</v>
       </c>
       <c r="D350" s="31" t="s">
+        <v>884</v>
+      </c>
+      <c r="E350" s="32" t="s">
         <v>885</v>
-      </c>
-      <c r="E350" s="32" t="s">
-        <v>886</v>
       </c>
       <c r="F350" s="33"/>
       <c r="G350" s="34"/>
@@ -20590,10 +20590,10 @@
         <v>81</v>
       </c>
       <c r="D351" s="31" t="s">
+        <v>886</v>
+      </c>
+      <c r="E351" s="32" t="s">
         <v>887</v>
-      </c>
-      <c r="E351" s="32" t="s">
-        <v>888</v>
       </c>
       <c r="F351" s="33"/>
       <c r="G351" s="34"/>
@@ -20624,10 +20624,10 @@
         <v>81</v>
       </c>
       <c r="D352" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="E352" s="32" t="s">
         <v>889</v>
-      </c>
-      <c r="E352" s="32" t="s">
-        <v>890</v>
       </c>
       <c r="F352" s="33"/>
       <c r="G352" s="34"/>
@@ -20658,10 +20658,10 @@
         <v>86</v>
       </c>
       <c r="D353" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="E353" s="32" t="s">
         <v>891</v>
-      </c>
-      <c r="E353" s="32" t="s">
-        <v>892</v>
       </c>
       <c r="F353" s="33"/>
       <c r="G353" s="34"/>
@@ -20692,10 +20692,10 @@
         <v>86</v>
       </c>
       <c r="D354" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="E354" s="32" t="s">
         <v>893</v>
-      </c>
-      <c r="E354" s="32" t="s">
-        <v>894</v>
       </c>
       <c r="F354" s="33"/>
       <c r="G354" s="34"/>
@@ -20726,10 +20726,10 @@
         <v>86</v>
       </c>
       <c r="D355" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="E355" s="32" t="s">
         <v>895</v>
-      </c>
-      <c r="E355" s="32" t="s">
-        <v>896</v>
       </c>
       <c r="F355" s="33"/>
       <c r="G355" s="34"/>
@@ -20760,10 +20760,10 @@
         <v>86</v>
       </c>
       <c r="D356" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="E356" s="32" t="s">
         <v>897</v>
-      </c>
-      <c r="E356" s="32" t="s">
-        <v>898</v>
       </c>
       <c r="F356" s="33"/>
       <c r="G356" s="34"/>
@@ -20794,10 +20794,10 @@
         <v>86</v>
       </c>
       <c r="D357" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="E357" s="32" t="s">
         <v>899</v>
-      </c>
-      <c r="E357" s="32" t="s">
-        <v>900</v>
       </c>
       <c r="F357" s="33"/>
       <c r="G357" s="34"/>
@@ -20828,10 +20828,10 @@
         <v>86</v>
       </c>
       <c r="D358" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="E358" s="32" t="s">
         <v>901</v>
-      </c>
-      <c r="E358" s="32" t="s">
-        <v>902</v>
       </c>
       <c r="F358" s="33"/>
       <c r="G358" s="34"/>
@@ -20862,10 +20862,10 @@
         <v>86</v>
       </c>
       <c r="D359" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="E359" s="32" t="s">
         <v>903</v>
-      </c>
-      <c r="E359" s="32" t="s">
-        <v>904</v>
       </c>
       <c r="F359" s="33"/>
       <c r="G359" s="34"/>
@@ -20896,10 +20896,10 @@
         <v>86</v>
       </c>
       <c r="D360" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E360" s="32" t="s">
         <v>905</v>
-      </c>
-      <c r="E360" s="32" t="s">
-        <v>906</v>
       </c>
       <c r="F360" s="33"/>
       <c r="G360" s="34"/>
@@ -20930,10 +20930,10 @@
         <v>86</v>
       </c>
       <c r="D361" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="E361" s="32" t="s">
         <v>907</v>
-      </c>
-      <c r="E361" s="32" t="s">
-        <v>908</v>
       </c>
       <c r="F361" s="33"/>
       <c r="G361" s="34"/>
@@ -20964,10 +20964,10 @@
         <v>86</v>
       </c>
       <c r="D362" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="E362" s="32" t="s">
         <v>909</v>
-      </c>
-      <c r="E362" s="32" t="s">
-        <v>910</v>
       </c>
       <c r="F362" s="33"/>
       <c r="G362" s="34"/>
@@ -20998,10 +20998,10 @@
         <v>86</v>
       </c>
       <c r="D363" s="31" t="s">
+        <v>910</v>
+      </c>
+      <c r="E363" s="32" t="s">
         <v>911</v>
-      </c>
-      <c r="E363" s="32" t="s">
-        <v>912</v>
       </c>
       <c r="F363" s="33"/>
       <c r="G363" s="34"/>
@@ -21032,10 +21032,10 @@
         <v>86</v>
       </c>
       <c r="D364" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="E364" s="32" t="s">
         <v>913</v>
-      </c>
-      <c r="E364" s="32" t="s">
-        <v>914</v>
       </c>
       <c r="F364" s="33"/>
       <c r="G364" s="34"/>
@@ -21066,10 +21066,10 @@
         <v>86</v>
       </c>
       <c r="D365" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="E365" s="32" t="s">
         <v>915</v>
-      </c>
-      <c r="E365" s="32" t="s">
-        <v>916</v>
       </c>
       <c r="F365" s="33"/>
       <c r="G365" s="34"/>
@@ -21100,10 +21100,10 @@
         <v>86</v>
       </c>
       <c r="D366" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="E366" s="32" t="s">
         <v>917</v>
-      </c>
-      <c r="E366" s="32" t="s">
-        <v>918</v>
       </c>
       <c r="F366" s="33"/>
       <c r="G366" s="34"/>
@@ -21134,10 +21134,10 @@
         <v>86</v>
       </c>
       <c r="D367" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="E367" s="32" t="s">
         <v>919</v>
-      </c>
-      <c r="E367" s="32" t="s">
-        <v>920</v>
       </c>
       <c r="F367" s="33"/>
       <c r="G367" s="34"/>
@@ -21168,10 +21168,10 @@
         <v>86</v>
       </c>
       <c r="D368" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="E368" s="32" t="s">
         <v>921</v>
-      </c>
-      <c r="E368" s="32" t="s">
-        <v>922</v>
       </c>
       <c r="F368" s="33"/>
       <c r="G368" s="34"/>
@@ -21202,10 +21202,10 @@
         <v>86</v>
       </c>
       <c r="D369" s="31" t="s">
+        <v>922</v>
+      </c>
+      <c r="E369" s="32" t="s">
         <v>923</v>
-      </c>
-      <c r="E369" s="32" t="s">
-        <v>924</v>
       </c>
       <c r="F369" s="33"/>
       <c r="G369" s="34"/>
@@ -21236,10 +21236,10 @@
         <v>86</v>
       </c>
       <c r="D370" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="E370" s="32" t="s">
         <v>925</v>
-      </c>
-      <c r="E370" s="32" t="s">
-        <v>926</v>
       </c>
       <c r="F370" s="33"/>
       <c r="G370" s="34"/>
@@ -21270,10 +21270,10 @@
         <v>86</v>
       </c>
       <c r="D371" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="E371" s="32" t="s">
         <v>927</v>
-      </c>
-      <c r="E371" s="32" t="s">
-        <v>928</v>
       </c>
       <c r="F371" s="33"/>
       <c r="G371" s="34"/>
@@ -21304,10 +21304,10 @@
         <v>86</v>
       </c>
       <c r="D372" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="E372" s="32" t="s">
         <v>929</v>
-      </c>
-      <c r="E372" s="32" t="s">
-        <v>930</v>
       </c>
       <c r="F372" s="33"/>
       <c r="G372" s="34"/>
@@ -21338,10 +21338,10 @@
         <v>86</v>
       </c>
       <c r="D373" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="E373" s="32" t="s">
         <v>931</v>
-      </c>
-      <c r="E373" s="32" t="s">
-        <v>932</v>
       </c>
       <c r="F373" s="33"/>
       <c r="G373" s="34"/>
@@ -21372,10 +21372,10 @@
         <v>49</v>
       </c>
       <c r="D374" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="E374" s="32" t="s">
         <v>933</v>
-      </c>
-      <c r="E374" s="32" t="s">
-        <v>934</v>
       </c>
       <c r="F374" s="33"/>
       <c r="G374" s="34"/>
@@ -31056,17 +31056,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
+        <v>934</v>
+      </c>
+      <c r="D1" s="69" t="s">
         <v>935</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -31074,13 +31074,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>937</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>938</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -31088,13 +31088,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C3" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>939</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>940</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -31102,13 +31102,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C4" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="D4" s="71" t="s">
         <v>942</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -31116,13 +31116,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C5" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>944</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -31130,13 +31130,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C6" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="D6" s="71" t="s">
         <v>946</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="7">
@@ -31144,13 +31144,13 @@
         <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C7" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>947</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>948</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="8">
@@ -31158,13 +31158,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C8" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>949</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>950</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="9">
@@ -31172,27 +31172,27 @@
         <v>86</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C9" s="69" t="s">
+        <v>936</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>952</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="C10" s="70">
+        <v>191.0</v>
+      </c>
+      <c r="D10" s="70" t="s">
         <v>954</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>937</v>
-      </c>
-      <c r="C10" s="69">
-        <v>191.0</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -31200,13 +31200,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="C11" s="70">
+        <v>192.0</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>956</v>
-      </c>
-      <c r="C11" s="69">
-        <v>192.0</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -31214,13 +31214,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C12" s="69">
+        <v>955</v>
+      </c>
+      <c r="C12" s="70">
         <v>208.0</v>
       </c>
-      <c r="D12" s="69" t="s">
-        <v>958</v>
+      <c r="D12" s="70" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -31228,13 +31228,13 @@
         <v>61</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C13" s="69">
+        <v>955</v>
+      </c>
+      <c r="C13" s="70">
         <v>224.0</v>
       </c>
-      <c r="D13" s="70" t="s">
-        <v>959</v>
+      <c r="D13" s="71" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -31242,13 +31242,13 @@
         <v>66</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C14" s="69">
+        <v>955</v>
+      </c>
+      <c r="C14" s="70">
         <v>240.0</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>960</v>
+      <c r="D14" s="70" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -31256,13 +31256,13 @@
         <v>71</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C15" s="69">
+        <v>955</v>
+      </c>
+      <c r="C15" s="70">
         <v>256.0</v>
       </c>
-      <c r="D15" s="70" t="s">
-        <v>961</v>
+      <c r="D15" s="71" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -31270,13 +31270,13 @@
         <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C16" s="69">
+        <v>955</v>
+      </c>
+      <c r="C16" s="70">
         <v>272.0</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>962</v>
+      <c r="D16" s="71" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -31284,13 +31284,13 @@
         <v>81</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C17" s="69">
+        <v>955</v>
+      </c>
+      <c r="C17" s="70">
         <v>288.0</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>963</v>
+      <c r="D17" s="71" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
@@ -31298,13 +31298,13 @@
         <v>86</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="C18" s="69">
+        <v>955</v>
+      </c>
+      <c r="C18" s="70">
         <v>304.0</v>
       </c>
-      <c r="D18" s="70" t="s">
-        <v>964</v>
+      <c r="D18" s="71" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -31312,13 +31312,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="C19" s="70">
+        <v>193.0</v>
+      </c>
+      <c r="D19" s="70" t="s">
         <v>965</v>
-      </c>
-      <c r="C19" s="69">
-        <v>193.0</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -31326,13 +31326,13 @@
         <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C20" s="69">
+        <v>964</v>
+      </c>
+      <c r="C20" s="70">
         <v>209.0</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>967</v>
+      <c r="D20" s="70" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -31340,13 +31340,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C21" s="69">
+        <v>964</v>
+      </c>
+      <c r="C21" s="70">
         <v>225.0</v>
       </c>
-      <c r="D21" s="70" t="s">
-        <v>968</v>
+      <c r="D21" s="71" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -31354,13 +31354,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C22" s="69">
+        <v>964</v>
+      </c>
+      <c r="C22" s="70">
         <v>241.0</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>969</v>
+      <c r="D22" s="70" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -31368,13 +31368,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C23" s="69">
+        <v>964</v>
+      </c>
+      <c r="C23" s="70">
         <v>257.0</v>
       </c>
-      <c r="D23" s="70" t="s">
-        <v>970</v>
+      <c r="D23" s="71" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -31382,13 +31382,13 @@
         <v>76</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C24" s="69">
+        <v>964</v>
+      </c>
+      <c r="C24" s="70">
         <v>273.0</v>
       </c>
-      <c r="D24" s="70" t="s">
-        <v>971</v>
+      <c r="D24" s="71" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -31396,13 +31396,13 @@
         <v>81</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C25" s="69">
+        <v>964</v>
+      </c>
+      <c r="C25" s="70">
         <v>289.0</v>
       </c>
-      <c r="D25" s="70" t="s">
-        <v>972</v>
+      <c r="D25" s="71" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -31410,13 +31410,13 @@
         <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="C26" s="69">
+        <v>964</v>
+      </c>
+      <c r="C26" s="70">
         <v>305.0</v>
       </c>
-      <c r="D26" s="70" t="s">
-        <v>973</v>
+      <c r="D26" s="71" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
@@ -31424,13 +31424,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C27" s="70">
+        <v>194.0</v>
+      </c>
+      <c r="D27" s="70" t="s">
         <v>974</v>
-      </c>
-      <c r="C27" s="69">
-        <v>194.0</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -31438,13 +31438,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C28" s="69">
+        <v>973</v>
+      </c>
+      <c r="C28" s="70">
         <v>210.0</v>
       </c>
-      <c r="D28" s="69" t="s">
-        <v>976</v>
+      <c r="D28" s="70" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
@@ -31452,13 +31452,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C29" s="69">
+        <v>973</v>
+      </c>
+      <c r="C29" s="70">
         <v>226.0</v>
       </c>
-      <c r="D29" s="71" t="s">
-        <v>977</v>
+      <c r="D29" s="72" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
@@ -31466,13 +31466,13 @@
         <v>66</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C30" s="69">
+        <v>973</v>
+      </c>
+      <c r="C30" s="70">
         <v>242.0</v>
       </c>
-      <c r="D30" s="69" t="s">
-        <v>978</v>
+      <c r="D30" s="70" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
@@ -31480,13 +31480,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C31" s="69">
+        <v>973</v>
+      </c>
+      <c r="C31" s="70">
         <v>258.0</v>
       </c>
-      <c r="D31" s="70" t="s">
-        <v>979</v>
+      <c r="D31" s="71" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -31494,13 +31494,13 @@
         <v>76</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C32" s="69">
+        <v>973</v>
+      </c>
+      <c r="C32" s="70">
         <v>274.0</v>
       </c>
-      <c r="D32" s="70" t="s">
-        <v>980</v>
+      <c r="D32" s="71" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -31508,13 +31508,13 @@
         <v>81</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C33" s="69">
+        <v>973</v>
+      </c>
+      <c r="C33" s="70">
         <v>290.0</v>
       </c>
-      <c r="D33" s="70" t="s">
-        <v>981</v>
+      <c r="D33" s="71" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -31522,13 +31522,13 @@
         <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C34" s="69">
+        <v>973</v>
+      </c>
+      <c r="C34" s="70">
         <v>306.0</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>982</v>
+      <c r="D34" s="71" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -31536,12 +31536,12 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C35" s="69">
+        <v>982</v>
+      </c>
+      <c r="C35" s="70">
         <v>195.0</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="70">
         <v>204.0</v>
       </c>
     </row>
@@ -31550,12 +31550,12 @@
         <v>56</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C36" s="69">
+        <v>982</v>
+      </c>
+      <c r="C36" s="70">
         <v>211.0</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="70">
         <v>220.0</v>
       </c>
     </row>
@@ -31564,12 +31564,12 @@
         <v>61</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C37" s="69">
+        <v>982</v>
+      </c>
+      <c r="C37" s="70">
         <v>227.0</v>
       </c>
-      <c r="D37" s="70">
+      <c r="D37" s="71">
         <v>236.0</v>
       </c>
     </row>
@@ -31578,12 +31578,12 @@
         <v>66</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C38" s="69">
+        <v>982</v>
+      </c>
+      <c r="C38" s="70">
         <v>243.0</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="70">
         <v>252.0</v>
       </c>
     </row>
@@ -31592,12 +31592,12 @@
         <v>71</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C39" s="69">
+        <v>982</v>
+      </c>
+      <c r="C39" s="70">
         <v>259.0</v>
       </c>
-      <c r="D39" s="70">
+      <c r="D39" s="71">
         <v>268.0</v>
       </c>
     </row>
@@ -31606,12 +31606,12 @@
         <v>76</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C40" s="69">
+        <v>982</v>
+      </c>
+      <c r="C40" s="70">
         <v>275.0</v>
       </c>
-      <c r="D40" s="70">
+      <c r="D40" s="71">
         <v>284.0</v>
       </c>
     </row>
@@ -31620,12 +31620,12 @@
         <v>81</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C41" s="69">
+        <v>982</v>
+      </c>
+      <c r="C41" s="70">
         <v>291.0</v>
       </c>
-      <c r="D41" s="70">
+      <c r="D41" s="71">
         <v>300.0</v>
       </c>
     </row>
@@ -31634,12 +31634,12 @@
         <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="C42" s="69">
+        <v>982</v>
+      </c>
+      <c r="C42" s="70">
         <v>307.0</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="71">
         <v>316.0</v>
       </c>
     </row>
@@ -31648,12 +31648,12 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C43" s="69">
+        <v>983</v>
+      </c>
+      <c r="C43" s="70">
         <v>196.0</v>
       </c>
-      <c r="D43" s="69">
+      <c r="D43" s="70">
         <v>207.0</v>
       </c>
     </row>
@@ -31662,12 +31662,12 @@
         <v>56</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C44" s="69">
+        <v>983</v>
+      </c>
+      <c r="C44" s="70">
         <v>212.0</v>
       </c>
-      <c r="D44" s="69">
+      <c r="D44" s="70">
         <v>223.0</v>
       </c>
     </row>
@@ -31676,12 +31676,12 @@
         <v>61</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C45" s="69">
+        <v>983</v>
+      </c>
+      <c r="C45" s="70">
         <v>228.0</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="71">
         <v>239.0</v>
       </c>
     </row>
@@ -31690,12 +31690,12 @@
         <v>66</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C46" s="69">
+        <v>983</v>
+      </c>
+      <c r="C46" s="70">
         <v>244.0</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="70">
         <v>255.0</v>
       </c>
     </row>
@@ -31704,12 +31704,12 @@
         <v>71</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C47" s="69">
+        <v>983</v>
+      </c>
+      <c r="C47" s="70">
         <v>260.0</v>
       </c>
-      <c r="D47" s="70">
+      <c r="D47" s="71">
         <v>271.0</v>
       </c>
     </row>
@@ -31718,12 +31718,12 @@
         <v>76</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C48" s="69">
+        <v>983</v>
+      </c>
+      <c r="C48" s="70">
         <v>276.0</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="71">
         <v>287.0</v>
       </c>
     </row>
@@ -31732,12 +31732,12 @@
         <v>81</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C49" s="69">
+        <v>983</v>
+      </c>
+      <c r="C49" s="70">
         <v>292.0</v>
       </c>
-      <c r="D49" s="70">
+      <c r="D49" s="71">
         <v>303.0</v>
       </c>
     </row>
@@ -31746,12 +31746,12 @@
         <v>86</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="C50" s="69">
+        <v>983</v>
+      </c>
+      <c r="C50" s="70">
         <v>308.0</v>
       </c>
-      <c r="D50" s="70">
+      <c r="D50" s="71">
         <v>319.0</v>
       </c>
     </row>
@@ -32726,26 +32726,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="72" t="s">
-        <v>985</v>
-      </c>
-      <c r="B3" s="72" t="s">
+      <c r="A3" s="73" t="s">
+        <v>984</v>
+      </c>
+      <c r="B3" s="73" t="s">
         <v>429</v>
       </c>
     </row>
